--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA ÁRBOL DE DECISIÓN/PRESUNTA_MOTIVACION_prediccion..xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA ÁRBOL DE DECISIÓN/PRESUNTA_MOTIVACION_prediccion..xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACION\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA ARBOL DE DECISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\OPTUNA ÁRBOL DE DECISIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0294CF7E-614D-4322-920D-09BBB8F23A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3E2BB-5F57-47CD-9EEA-9F104CB231FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="710" windowWidth="9240" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,13 +683,13 @@
                   <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>174</c:v>
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1773,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2">
         <v>8.5999999999999993E-2</v>
@@ -1795,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2">
         <v>8.3000000000000004E-2</v>
